--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2523.322934022799</v>
+        <v>2934.271011313383</v>
       </c>
       <c r="AB2" t="n">
-        <v>3452.521759481388</v>
+        <v>4014.799048580034</v>
       </c>
       <c r="AC2" t="n">
-        <v>3123.017928401076</v>
+        <v>3631.632262189258</v>
       </c>
       <c r="AD2" t="n">
-        <v>2523322.934022799</v>
+        <v>2934271.011313383</v>
       </c>
       <c r="AE2" t="n">
-        <v>3452521.759481388</v>
+        <v>4014799.048580034</v>
       </c>
       <c r="AF2" t="n">
         <v>1.93252733731759e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>82</v>
+        <v>81.21527777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>3123017.928401076</v>
+        <v>3631632.262189258</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1546.777239130413</v>
+        <v>1840.364546403302</v>
       </c>
       <c r="AB3" t="n">
-        <v>2116.368857573955</v>
+        <v>2518.067963542601</v>
       </c>
       <c r="AC3" t="n">
-        <v>1914.385584149443</v>
+        <v>2277.747091232677</v>
       </c>
       <c r="AD3" t="n">
-        <v>1546777.239130413</v>
+        <v>1840364.546403302</v>
       </c>
       <c r="AE3" t="n">
-        <v>2116368.857573955</v>
+        <v>2518067.963542601</v>
       </c>
       <c r="AF3" t="n">
         <v>2.720536344205003e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.68518518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>1914385.584149443</v>
+        <v>2277747.091232677</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1323.066990998574</v>
+        <v>1587.288734460418</v>
       </c>
       <c r="AB4" t="n">
-        <v>1810.278626680373</v>
+        <v>2171.798472725504</v>
       </c>
       <c r="AC4" t="n">
-        <v>1637.508175292007</v>
+        <v>1964.525074626882</v>
       </c>
       <c r="AD4" t="n">
-        <v>1323066.990998574</v>
+        <v>1587288.734460418</v>
       </c>
       <c r="AE4" t="n">
-        <v>1810278.626680373</v>
+        <v>2171798.472725504</v>
       </c>
       <c r="AF4" t="n">
         <v>3.027006892400762e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.85185185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>1637508.175292007</v>
+        <v>1964525.074626882</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1221.421267123643</v>
+        <v>1466.032813655866</v>
       </c>
       <c r="AB5" t="n">
-        <v>1671.20246298184</v>
+        <v>2005.890772447035</v>
       </c>
       <c r="AC5" t="n">
-        <v>1511.705245462241</v>
+        <v>1814.45137241007</v>
       </c>
       <c r="AD5" t="n">
-        <v>1221421.267123643</v>
+        <v>1466032.813655866</v>
       </c>
       <c r="AE5" t="n">
-        <v>1671202.46298184</v>
+        <v>2005890.772447035</v>
       </c>
       <c r="AF5" t="n">
         <v>3.197328577592741e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.08564814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>1511705.245462241</v>
+        <v>1814451.37241007</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1147.447200858436</v>
+        <v>1382.270226120312</v>
       </c>
       <c r="AB6" t="n">
-        <v>1569.987882012308</v>
+        <v>1891.283104836332</v>
       </c>
       <c r="AC6" t="n">
-        <v>1420.150442044884</v>
+        <v>1710.781699743261</v>
       </c>
       <c r="AD6" t="n">
-        <v>1147447.200858437</v>
+        <v>1382270.226120312</v>
       </c>
       <c r="AE6" t="n">
-        <v>1569987.882012308</v>
+        <v>1891283.104836332</v>
       </c>
       <c r="AF6" t="n">
         <v>3.304593269461256e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1420150.442044884</v>
+        <v>1710781.699743261</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1098.827142775521</v>
+        <v>1333.717487845101</v>
       </c>
       <c r="AB7" t="n">
-        <v>1503.463773577685</v>
+        <v>1824.85110633255</v>
       </c>
       <c r="AC7" t="n">
-        <v>1359.975301152089</v>
+        <v>1650.689877938784</v>
       </c>
       <c r="AD7" t="n">
-        <v>1098827.142775521</v>
+        <v>1333717.487845101</v>
       </c>
       <c r="AE7" t="n">
-        <v>1503463.773577685</v>
+        <v>1824851.10633255</v>
       </c>
       <c r="AF7" t="n">
         <v>3.370633604404324e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.5625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1359975.301152089</v>
+        <v>1650689.877938784</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1052.219647122928</v>
+        <v>1287.075826773727</v>
       </c>
       <c r="AB8" t="n">
-        <v>1439.693341848216</v>
+        <v>1761.033927969833</v>
       </c>
       <c r="AC8" t="n">
-        <v>1302.291029924517</v>
+        <v>1592.963321511033</v>
       </c>
       <c r="AD8" t="n">
-        <v>1052219.647122928</v>
+        <v>1287075.826773727</v>
       </c>
       <c r="AE8" t="n">
-        <v>1439693.341848216</v>
+        <v>1761033.927969833</v>
       </c>
       <c r="AF8" t="n">
         <v>3.424469359994464e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.83333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1302291.029924517</v>
+        <v>1592963.321511033</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1046.170108008757</v>
+        <v>1281.026287659556</v>
       </c>
       <c r="AB9" t="n">
-        <v>1431.416095545378</v>
+        <v>1752.756681666995</v>
       </c>
       <c r="AC9" t="n">
-        <v>1294.803752391634</v>
+        <v>1585.47604397815</v>
       </c>
       <c r="AD9" t="n">
-        <v>1046170.108008757</v>
+        <v>1281026.287659556</v>
       </c>
       <c r="AE9" t="n">
-        <v>1431416.095545378</v>
+        <v>1752756.681666995</v>
       </c>
       <c r="AF9" t="n">
         <v>3.4354534814121e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.68287037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>1294803.752391634</v>
+        <v>1585476.04397815</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1943.658067927637</v>
+        <v>2301.735890225298</v>
       </c>
       <c r="AB2" t="n">
-        <v>2659.39871668075</v>
+        <v>3149.336590427193</v>
       </c>
       <c r="AC2" t="n">
-        <v>2405.58943565028</v>
+        <v>2848.768326358368</v>
       </c>
       <c r="AD2" t="n">
-        <v>1943658.067927637</v>
+        <v>2301735.890225298</v>
       </c>
       <c r="AE2" t="n">
-        <v>2659398.71668075</v>
+        <v>3149336.590427193</v>
       </c>
       <c r="AF2" t="n">
         <v>2.422574256791172e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.89120370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>2405589.43565028</v>
+        <v>2848768.326358368</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1304.197215870425</v>
+        <v>1575.184261235891</v>
       </c>
       <c r="AB3" t="n">
-        <v>1784.460167874313</v>
+        <v>2155.236598448036</v>
       </c>
       <c r="AC3" t="n">
-        <v>1614.153793957964</v>
+        <v>1949.543842385719</v>
       </c>
       <c r="AD3" t="n">
-        <v>1304197.215870425</v>
+        <v>1575184.26123589</v>
       </c>
       <c r="AE3" t="n">
-        <v>1784460.167874313</v>
+        <v>2155236.598448036</v>
       </c>
       <c r="AF3" t="n">
         <v>3.195032245451357e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>1614153.793957964</v>
+        <v>1949543.842385719</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1144.634723781422</v>
+        <v>1386.54696730764</v>
       </c>
       <c r="AB4" t="n">
-        <v>1566.139726797805</v>
+        <v>1897.134730805339</v>
       </c>
       <c r="AC4" t="n">
-        <v>1416.669549363134</v>
+        <v>1716.074854742594</v>
       </c>
       <c r="AD4" t="n">
-        <v>1144634.723781422</v>
+        <v>1386546.96730764</v>
       </c>
       <c r="AE4" t="n">
-        <v>1566139.726797805</v>
+        <v>1897134.730805339</v>
       </c>
       <c r="AF4" t="n">
         <v>3.482737977301549e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.30555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1416669.549363134</v>
+        <v>1716074.854742595</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1056.793938546631</v>
+        <v>1289.025632922741</v>
       </c>
       <c r="AB5" t="n">
-        <v>1445.952089177622</v>
+        <v>1763.701738762291</v>
       </c>
       <c r="AC5" t="n">
-        <v>1307.952451193012</v>
+        <v>1595.376520185754</v>
       </c>
       <c r="AD5" t="n">
-        <v>1056793.938546631</v>
+        <v>1289025.632922741</v>
       </c>
       <c r="AE5" t="n">
-        <v>1445952.089177622</v>
+        <v>1763701.738762291</v>
       </c>
       <c r="AF5" t="n">
         <v>3.641502873165245e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.16435185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>1307952.451193012</v>
+        <v>1595376.520185754</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>989.2859995921899</v>
+        <v>1221.550848357223</v>
       </c>
       <c r="AB6" t="n">
-        <v>1353.584748860083</v>
+        <v>1671.379761742345</v>
       </c>
       <c r="AC6" t="n">
-        <v>1224.400520197002</v>
+        <v>1511.865623077884</v>
       </c>
       <c r="AD6" t="n">
-        <v>989285.9995921899</v>
+        <v>1221550.848357223</v>
       </c>
       <c r="AE6" t="n">
-        <v>1353584.748860083</v>
+        <v>1671379.761742345</v>
       </c>
       <c r="AF6" t="n">
         <v>3.734387756165873e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.9837962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>1224400.520197002</v>
+        <v>1511865.623077884</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>984.2986778464168</v>
+        <v>1216.56352661145</v>
       </c>
       <c r="AB7" t="n">
-        <v>1346.760875222409</v>
+        <v>1664.555888104671</v>
       </c>
       <c r="AC7" t="n">
-        <v>1218.227907481941</v>
+        <v>1505.693010362823</v>
       </c>
       <c r="AD7" t="n">
-        <v>984298.6778464168</v>
+        <v>1216563.52661145</v>
       </c>
       <c r="AE7" t="n">
-        <v>1346760.875222409</v>
+        <v>1664555.888104671</v>
       </c>
       <c r="AF7" t="n">
         <v>3.748038569642004e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.82175925925927</v>
       </c>
       <c r="AH7" t="n">
-        <v>1218227.907481941</v>
+        <v>1505693.010362823</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1011.203780684763</v>
+        <v>1263.767622238598</v>
       </c>
       <c r="AB2" t="n">
-        <v>1383.573623895199</v>
+        <v>1729.142614239459</v>
       </c>
       <c r="AC2" t="n">
-        <v>1251.527299088418</v>
+        <v>1564.115670003346</v>
       </c>
       <c r="AD2" t="n">
-        <v>1011203.780684763</v>
+        <v>1263767.622238598</v>
       </c>
       <c r="AE2" t="n">
-        <v>1383573.623895199</v>
+        <v>1729142.614239459</v>
       </c>
       <c r="AF2" t="n">
         <v>4.544485007685504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.74305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1251527.299088418</v>
+        <v>1564115.670003346</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>855.5363790505322</v>
+        <v>1089.355091706134</v>
       </c>
       <c r="AB3" t="n">
-        <v>1170.582617418173</v>
+        <v>1490.503695427148</v>
       </c>
       <c r="AC3" t="n">
-        <v>1058.863855334804</v>
+        <v>1348.252114670655</v>
       </c>
       <c r="AD3" t="n">
-        <v>855536.3790505322</v>
+        <v>1089355.091706134</v>
       </c>
       <c r="AE3" t="n">
-        <v>1170582.617418173</v>
+        <v>1490503.695427148</v>
       </c>
       <c r="AF3" t="n">
         <v>5.021652826931158e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.73148148148149</v>
       </c>
       <c r="AH3" t="n">
-        <v>1058863.855334804</v>
+        <v>1348252.114670655</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1293.675809228736</v>
+        <v>1578.017262437837</v>
       </c>
       <c r="AB2" t="n">
-        <v>1770.064315135453</v>
+        <v>2159.112835675731</v>
       </c>
       <c r="AC2" t="n">
-        <v>1601.131861199794</v>
+        <v>1953.050136972736</v>
       </c>
       <c r="AD2" t="n">
-        <v>1293675.809228736</v>
+        <v>1578017.262437836</v>
       </c>
       <c r="AE2" t="n">
-        <v>1770064.315135453</v>
+        <v>2159112.835675731</v>
       </c>
       <c r="AF2" t="n">
         <v>3.563185794436189e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.26388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1601131.861199794</v>
+        <v>1953050.136972736</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>968.9568666357403</v>
+        <v>1205.885469202446</v>
       </c>
       <c r="AB3" t="n">
-        <v>1325.769532291019</v>
+        <v>1649.945698875028</v>
       </c>
       <c r="AC3" t="n">
-        <v>1199.239948858389</v>
+        <v>1492.477197087727</v>
       </c>
       <c r="AD3" t="n">
-        <v>968956.8666357403</v>
+        <v>1205885.469202446</v>
       </c>
       <c r="AE3" t="n">
-        <v>1325769.532291019</v>
+        <v>1649945.698875028</v>
       </c>
       <c r="AF3" t="n">
         <v>4.287588443237103e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.41435185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>1199239.948858389</v>
+        <v>1492477.197087727</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>898.5748495156664</v>
+        <v>1126.122367180379</v>
       </c>
       <c r="AB4" t="n">
-        <v>1229.469751431881</v>
+        <v>1540.810303788725</v>
       </c>
       <c r="AC4" t="n">
-        <v>1112.130883926855</v>
+        <v>1393.757530935972</v>
       </c>
       <c r="AD4" t="n">
-        <v>898574.8495156664</v>
+        <v>1126122.367180379</v>
       </c>
       <c r="AE4" t="n">
-        <v>1229469.751431881</v>
+        <v>1540810.303788725</v>
       </c>
       <c r="AF4" t="n">
         <v>4.450260689452114e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.64351851851851</v>
       </c>
       <c r="AH4" t="n">
-        <v>1112130.883926855</v>
+        <v>1393757.530935972</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>837.8647685965635</v>
+        <v>1069.044363149508</v>
       </c>
       <c r="AB2" t="n">
-        <v>1146.403540378622</v>
+        <v>1462.713660569868</v>
       </c>
       <c r="AC2" t="n">
-        <v>1036.99239547236</v>
+        <v>1323.114321736595</v>
       </c>
       <c r="AD2" t="n">
-        <v>837864.7685965635</v>
+        <v>1069044.363149508</v>
       </c>
       <c r="AE2" t="n">
-        <v>1146403.540378622</v>
+        <v>1462713.660569868</v>
       </c>
       <c r="AF2" t="n">
         <v>5.549041435413246e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.47916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1036992.39547236</v>
+        <v>1323114.321736595</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>838.2174061692303</v>
+        <v>1069.397000722174</v>
       </c>
       <c r="AB3" t="n">
-        <v>1146.886034662817</v>
+        <v>1463.196154854063</v>
       </c>
       <c r="AC3" t="n">
-        <v>1037.428841179256</v>
+        <v>1323.550767443491</v>
       </c>
       <c r="AD3" t="n">
-        <v>838217.4061692304</v>
+        <v>1069397.000722175</v>
       </c>
       <c r="AE3" t="n">
-        <v>1146886.034662817</v>
+        <v>1463196.154854062</v>
       </c>
       <c r="AF3" t="n">
         <v>5.565171680256066e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.3287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1037428.841179256</v>
+        <v>1323550.767443491</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2079.627761538301</v>
+        <v>2448.397236029674</v>
       </c>
       <c r="AB2" t="n">
-        <v>2845.438450038385</v>
+        <v>3350.005113998683</v>
       </c>
       <c r="AC2" t="n">
-        <v>2573.873797964668</v>
+        <v>3030.285327680229</v>
       </c>
       <c r="AD2" t="n">
-        <v>2079627.761538301</v>
+        <v>2448397.236029674</v>
       </c>
       <c r="AE2" t="n">
-        <v>2845438.450038385</v>
+        <v>3350005.113998683</v>
       </c>
       <c r="AF2" t="n">
         <v>2.286586256667795e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.28703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>2573873.797964668</v>
+        <v>3030285.327680229</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1363.914234493067</v>
+        <v>1635.730072641436</v>
       </c>
       <c r="AB3" t="n">
-        <v>1866.167627282738</v>
+        <v>2238.078048705785</v>
       </c>
       <c r="AC3" t="n">
-        <v>1688.063208117588</v>
+        <v>2024.479020899574</v>
       </c>
       <c r="AD3" t="n">
-        <v>1363914.234493067</v>
+        <v>1635730.072641436</v>
       </c>
       <c r="AE3" t="n">
-        <v>1866167.627282738</v>
+        <v>2238078.048705786</v>
       </c>
       <c r="AF3" t="n">
         <v>3.062247514074671e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.72222222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>1688063.208117588</v>
+        <v>2024479.020899574</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1183.389743576974</v>
+        <v>1435.753558908908</v>
       </c>
       <c r="AB4" t="n">
-        <v>1619.166054632884</v>
+        <v>1964.461360275806</v>
       </c>
       <c r="AC4" t="n">
-        <v>1464.635118892552</v>
+        <v>1776.975925189918</v>
       </c>
       <c r="AD4" t="n">
-        <v>1183389.743576974</v>
+        <v>1435753.558908908</v>
       </c>
       <c r="AE4" t="n">
-        <v>1619166.054632884</v>
+        <v>1964461.360275806</v>
       </c>
       <c r="AF4" t="n">
         <v>3.358495961462102e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.89583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1464635.118892552</v>
+        <v>1776975.925189918</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1094.55568338066</v>
+        <v>1337.210570013768</v>
       </c>
       <c r="AB5" t="n">
-        <v>1497.619374390147</v>
+        <v>1829.630495459629</v>
       </c>
       <c r="AC5" t="n">
-        <v>1354.688683220344</v>
+        <v>1655.01312887549</v>
       </c>
       <c r="AD5" t="n">
-        <v>1094555.68338066</v>
+        <v>1337210.570013768</v>
       </c>
       <c r="AE5" t="n">
-        <v>1497619.374390147</v>
+        <v>1829630.495459629</v>
       </c>
       <c r="AF5" t="n">
         <v>3.517334938384883e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.65046296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>1354688.683220344</v>
+        <v>1655013.12887549</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1012.145269633413</v>
+        <v>1245.091227567694</v>
       </c>
       <c r="AB6" t="n">
-        <v>1384.861810610304</v>
+        <v>1703.588747106347</v>
       </c>
       <c r="AC6" t="n">
-        <v>1252.692543071414</v>
+        <v>1541.00062808434</v>
       </c>
       <c r="AD6" t="n">
-        <v>1012145.269633414</v>
+        <v>1245091.227567694</v>
       </c>
       <c r="AE6" t="n">
-        <v>1384861.810610304</v>
+        <v>1703588.747106347</v>
       </c>
       <c r="AF6" t="n">
         <v>3.648083886572005e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.9375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1252692.543071414</v>
+        <v>1541000.62808434</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>999.6396613186547</v>
+        <v>1232.585619252935</v>
       </c>
       <c r="AB7" t="n">
-        <v>1367.751085605549</v>
+        <v>1686.478022101593</v>
       </c>
       <c r="AC7" t="n">
-        <v>1237.21484164606</v>
+        <v>1525.522926658986</v>
       </c>
       <c r="AD7" t="n">
-        <v>999639.6613186547</v>
+        <v>1232585.619252936</v>
       </c>
       <c r="AE7" t="n">
-        <v>1367751.085605549</v>
+        <v>1686478.022101593</v>
       </c>
       <c r="AF7" t="n">
         <v>3.656192348475082e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.83333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1237214.84164606</v>
+        <v>1525522.926658986</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1001.843633400673</v>
+        <v>1234.789591334953</v>
       </c>
       <c r="AB8" t="n">
-        <v>1370.766657440553</v>
+        <v>1689.493593936596</v>
       </c>
       <c r="AC8" t="n">
-        <v>1239.942611537512</v>
+        <v>1528.250696550438</v>
       </c>
       <c r="AD8" t="n">
-        <v>1001843.633400673</v>
+        <v>1234789.591334953</v>
       </c>
       <c r="AE8" t="n">
-        <v>1370766.657440552</v>
+        <v>1689493.593936596</v>
       </c>
       <c r="AF8" t="n">
         <v>3.656916318287857e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.82175925925927</v>
       </c>
       <c r="AH8" t="n">
-        <v>1239942.611537512</v>
+        <v>1528250.696550438</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>825.15578184631</v>
+        <v>1073.170281394437</v>
       </c>
       <c r="AB2" t="n">
-        <v>1129.014544026001</v>
+        <v>1468.358923935247</v>
       </c>
       <c r="AC2" t="n">
-        <v>1021.262980526023</v>
+        <v>1328.220809089559</v>
       </c>
       <c r="AD2" t="n">
-        <v>825155.78184631</v>
+        <v>1073170.281394437</v>
       </c>
       <c r="AE2" t="n">
-        <v>1129014.544026001</v>
+        <v>1468358.923935247</v>
       </c>
       <c r="AF2" t="n">
         <v>5.909453624888892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.83333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1021262.980526023</v>
+        <v>1328220.809089559</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1600.393668047868</v>
+        <v>1916.676662261172</v>
       </c>
       <c r="AB2" t="n">
-        <v>2189.729221008719</v>
+        <v>2622.481567112285</v>
       </c>
       <c r="AC2" t="n">
-        <v>1980.74453745991</v>
+        <v>2372.195607023084</v>
       </c>
       <c r="AD2" t="n">
-        <v>1600393.668047868</v>
+        <v>1916676.662261172</v>
       </c>
       <c r="AE2" t="n">
-        <v>2189729.221008719</v>
+        <v>2622481.567112285</v>
       </c>
       <c r="AF2" t="n">
         <v>2.905430927412558e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1980744.53745991</v>
+        <v>2372195.607023084</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1142.161820838272</v>
+        <v>1391.359873985206</v>
       </c>
       <c r="AB3" t="n">
-        <v>1562.756191894209</v>
+        <v>1903.719962052042</v>
       </c>
       <c r="AC3" t="n">
-        <v>1413.608934281915</v>
+        <v>1722.031600761542</v>
       </c>
       <c r="AD3" t="n">
-        <v>1142161.820838272</v>
+        <v>1391359.873985206</v>
       </c>
       <c r="AE3" t="n">
-        <v>1562756.191894209</v>
+        <v>1903719.962052042</v>
       </c>
       <c r="AF3" t="n">
         <v>3.658248603295887e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.04166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1413608.934281915</v>
+        <v>1722031.600761543</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1003.709047264635</v>
+        <v>1233.730212844383</v>
       </c>
       <c r="AB4" t="n">
-        <v>1373.318998985478</v>
+        <v>1688.044105549317</v>
       </c>
       <c r="AC4" t="n">
-        <v>1242.251361187624</v>
+        <v>1526.939545300472</v>
       </c>
       <c r="AD4" t="n">
-        <v>1003709.047264635</v>
+        <v>1233730.212844383</v>
       </c>
       <c r="AE4" t="n">
-        <v>1373318.998985478</v>
+        <v>1688044.105549317</v>
       </c>
       <c r="AF4" t="n">
         <v>3.936078015612881e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.44212962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>1242251.361187624</v>
+        <v>1526939.545300472</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>946.6680920384996</v>
+        <v>1167.134979253435</v>
       </c>
       <c r="AB5" t="n">
-        <v>1295.273047575738</v>
+        <v>1596.925568975828</v>
       </c>
       <c r="AC5" t="n">
-        <v>1171.654005842248</v>
+        <v>1444.517233971887</v>
       </c>
       <c r="AD5" t="n">
-        <v>946668.0920384995</v>
+        <v>1167134.979253436</v>
       </c>
       <c r="AE5" t="n">
-        <v>1295273.047575738</v>
+        <v>1596925.568975828</v>
       </c>
       <c r="AF5" t="n">
         <v>4.04917814222973e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.11111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1171654.005842248</v>
+        <v>1444517.233971887</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>949.5978010419758</v>
+        <v>1170.064688256911</v>
       </c>
       <c r="AB6" t="n">
-        <v>1299.281604683933</v>
+        <v>1600.934126084023</v>
       </c>
       <c r="AC6" t="n">
-        <v>1175.279991886083</v>
+        <v>1448.143220015721</v>
       </c>
       <c r="AD6" t="n">
-        <v>949597.8010419759</v>
+        <v>1170064.688256911</v>
       </c>
       <c r="AE6" t="n">
-        <v>1299281.604683933</v>
+        <v>1600934.126084023</v>
       </c>
       <c r="AF6" t="n">
         <v>4.04917814222973e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.11111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1175279.991886083</v>
+        <v>1448143.220015721</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1823.229068802453</v>
+        <v>2160.98306855372</v>
       </c>
       <c r="AB2" t="n">
-        <v>2494.622447125201</v>
+        <v>2956.752370239718</v>
       </c>
       <c r="AC2" t="n">
-        <v>2256.539181996165</v>
+        <v>2674.564073852054</v>
       </c>
       <c r="AD2" t="n">
-        <v>1823229.068802453</v>
+        <v>2160983.06855372</v>
       </c>
       <c r="AE2" t="n">
-        <v>2494622.447125201</v>
+        <v>2956752.370239718</v>
       </c>
       <c r="AF2" t="n">
         <v>2.570533741098957e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.5763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2256539.181996165</v>
+        <v>2674564.073852054</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1246.782872381015</v>
+        <v>1516.910908260711</v>
       </c>
       <c r="AB3" t="n">
-        <v>1705.903330170034</v>
+        <v>2075.504426068503</v>
       </c>
       <c r="AC3" t="n">
-        <v>1543.094310588967</v>
+        <v>1877.421196633282</v>
       </c>
       <c r="AD3" t="n">
-        <v>1246782.872381015</v>
+        <v>1516910.908260711</v>
       </c>
       <c r="AE3" t="n">
-        <v>1705903.330170034</v>
+        <v>2075504.426068503</v>
       </c>
       <c r="AF3" t="n">
         <v>3.335038710606438e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.84722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1543094.310588967</v>
+        <v>1877421.196633282</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1093.858805379859</v>
+        <v>1335.101900796827</v>
       </c>
       <c r="AB4" t="n">
-        <v>1496.665875165363</v>
+        <v>1826.74532120909</v>
       </c>
       <c r="AC4" t="n">
-        <v>1353.826184623329</v>
+        <v>1652.403311606055</v>
       </c>
       <c r="AD4" t="n">
-        <v>1093858.805379859</v>
+        <v>1335101.900796827</v>
       </c>
       <c r="AE4" t="n">
-        <v>1496665.875165363</v>
+        <v>1826745.32120909</v>
       </c>
       <c r="AF4" t="n">
         <v>3.624240889310562e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.63425925925927</v>
       </c>
       <c r="AH4" t="n">
-        <v>1353826.184623329</v>
+        <v>1652403.311606055</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1007.756579770745</v>
+        <v>1239.348584754283</v>
       </c>
       <c r="AB5" t="n">
-        <v>1378.857011524869</v>
+        <v>1695.731409861517</v>
       </c>
       <c r="AC5" t="n">
-        <v>1247.260833582905</v>
+        <v>1533.893184078315</v>
       </c>
       <c r="AD5" t="n">
-        <v>1007756.579770745</v>
+        <v>1239348.584754283</v>
       </c>
       <c r="AE5" t="n">
-        <v>1378857.011524869</v>
+        <v>1695731.409861517</v>
       </c>
       <c r="AF5" t="n">
         <v>3.781253762530126e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.62037037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>1247260.833582905</v>
+        <v>1533893.184078315</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>963.6506390277988</v>
+        <v>1195.208478592556</v>
       </c>
       <c r="AB6" t="n">
-        <v>1318.509317583593</v>
+        <v>1635.336969286993</v>
       </c>
       <c r="AC6" t="n">
-        <v>1192.672638852864</v>
+        <v>1479.262704148094</v>
       </c>
       <c r="AD6" t="n">
-        <v>963650.6390277988</v>
+        <v>1195208.478592556</v>
       </c>
       <c r="AE6" t="n">
-        <v>1318509.317583593</v>
+        <v>1635336.969286993</v>
       </c>
       <c r="AF6" t="n">
         <v>3.856942800347899e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.70601851851853</v>
       </c>
       <c r="AH6" t="n">
-        <v>1192672.638852864</v>
+        <v>1479262.704148094</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>965.5986566879081</v>
+        <v>1197.156496252665</v>
       </c>
       <c r="AB7" t="n">
-        <v>1321.174681286628</v>
+        <v>1638.002332990029</v>
       </c>
       <c r="AC7" t="n">
-        <v>1195.083623984943</v>
+        <v>1481.673689280173</v>
       </c>
       <c r="AD7" t="n">
-        <v>965598.6566879081</v>
+        <v>1197156.496252665</v>
       </c>
       <c r="AE7" t="n">
-        <v>1321174.681286628</v>
+        <v>1638002.332990029</v>
       </c>
       <c r="AF7" t="n">
         <v>3.857856551307469e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.69444444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1195083.623984943</v>
+        <v>1481673.689280173</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2364.439437415895</v>
+        <v>2754.817185841477</v>
       </c>
       <c r="AB2" t="n">
-        <v>3235.130349978641</v>
+        <v>3769.262407625328</v>
       </c>
       <c r="AC2" t="n">
-        <v>2926.374049910521</v>
+        <v>3409.529293634439</v>
       </c>
       <c r="AD2" t="n">
-        <v>2364439.437415895</v>
+        <v>2754817.185841477</v>
       </c>
       <c r="AE2" t="n">
-        <v>3235130.349978641</v>
+        <v>3769262.407625328</v>
       </c>
       <c r="AF2" t="n">
         <v>2.041871778721927e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78.47222222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>2926374.049910521</v>
+        <v>3409529.293634439</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1483.844316306204</v>
+        <v>1766.932365213788</v>
       </c>
       <c r="AB3" t="n">
-        <v>2030.261256161266</v>
+        <v>2417.594813639913</v>
       </c>
       <c r="AC3" t="n">
-        <v>1836.495971362804</v>
+        <v>2186.862957741751</v>
       </c>
       <c r="AD3" t="n">
-        <v>1483844.316306204</v>
+        <v>1766932.365213788</v>
       </c>
       <c r="AE3" t="n">
-        <v>2030261.256161266</v>
+        <v>2417594.813639913</v>
       </c>
       <c r="AF3" t="n">
         <v>2.828495647912923e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.6550925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>1836495.971362804</v>
+        <v>2186862.957741751</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1282.523199847643</v>
+        <v>1536.255424017209</v>
       </c>
       <c r="AB4" t="n">
-        <v>1754.804822961841</v>
+        <v>2101.972445946347</v>
       </c>
       <c r="AC4" t="n">
-        <v>1587.3287135424</v>
+        <v>1901.363145842083</v>
       </c>
       <c r="AD4" t="n">
-        <v>1282523.199847643</v>
+        <v>1536255.424017209</v>
       </c>
       <c r="AE4" t="n">
-        <v>1754804.822961841</v>
+        <v>2101972.445946347</v>
       </c>
       <c r="AF4" t="n">
         <v>3.131128484599216e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.16898148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>1587328.7135424</v>
+        <v>1901363.145842083</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1173.642003925613</v>
+        <v>1417.678712926112</v>
       </c>
       <c r="AB5" t="n">
-        <v>1605.82876720197</v>
+        <v>1939.730558596217</v>
       </c>
       <c r="AC5" t="n">
-        <v>1452.570723455043</v>
+        <v>1754.605396512731</v>
       </c>
       <c r="AD5" t="n">
-        <v>1173642.003925613</v>
+        <v>1417678.712926112</v>
       </c>
       <c r="AE5" t="n">
-        <v>1605828.76720197</v>
+        <v>1939730.558596217</v>
       </c>
       <c r="AF5" t="n">
         <v>3.301549812120179e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.53009259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>1452570.723455043</v>
+        <v>1754605.396512731</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1112.20837563501</v>
+        <v>1346.414929851034</v>
       </c>
       <c r="AB6" t="n">
-        <v>1521.772566714367</v>
+        <v>1842.224306656674</v>
       </c>
       <c r="AC6" t="n">
-        <v>1376.536728768359</v>
+        <v>1666.405004407414</v>
       </c>
       <c r="AD6" t="n">
-        <v>1112208.37563501</v>
+        <v>1346414.929851034</v>
       </c>
       <c r="AE6" t="n">
-        <v>1521772.566714367</v>
+        <v>1842224.306656674</v>
       </c>
       <c r="AF6" t="n">
         <v>3.403581102439391e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.08333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1376536.728768359</v>
+        <v>1666405.004407414</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1061.65827641707</v>
+        <v>1286.136161075103</v>
       </c>
       <c r="AB7" t="n">
-        <v>1452.607690851397</v>
+        <v>1759.748235905852</v>
       </c>
       <c r="AC7" t="n">
-        <v>1313.972851584238</v>
+        <v>1591.800334093158</v>
       </c>
       <c r="AD7" t="n">
-        <v>1061658.27641707</v>
+        <v>1286136.161075103</v>
       </c>
       <c r="AE7" t="n">
-        <v>1452607.690851397</v>
+        <v>1759748.235905852</v>
       </c>
       <c r="AF7" t="n">
         <v>3.472940229237119e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.13425925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>1313972.851584238</v>
+        <v>1591800.334093157</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1030.278142674796</v>
+        <v>1264.517851279743</v>
       </c>
       <c r="AB8" t="n">
-        <v>1409.672007471423</v>
+        <v>1730.169110711323</v>
       </c>
       <c r="AC8" t="n">
-        <v>1275.134889565438</v>
+        <v>1565.044199092632</v>
       </c>
       <c r="AD8" t="n">
-        <v>1030278.142674796</v>
+        <v>1264517.851279743</v>
       </c>
       <c r="AE8" t="n">
-        <v>1409672.007471423</v>
+        <v>1730169.110711323</v>
       </c>
       <c r="AF8" t="n">
         <v>3.505335510016896e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.70601851851853</v>
       </c>
       <c r="AH8" t="n">
-        <v>1275134.889565438</v>
+        <v>1565044.199092632</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1032.459737155791</v>
+        <v>1266.699445760738</v>
       </c>
       <c r="AB9" t="n">
-        <v>1412.656961285476</v>
+        <v>1733.154064525376</v>
       </c>
       <c r="AC9" t="n">
-        <v>1277.834963576887</v>
+        <v>1567.744273104081</v>
       </c>
       <c r="AD9" t="n">
-        <v>1032459.737155791</v>
+        <v>1266699.445760738</v>
       </c>
       <c r="AE9" t="n">
-        <v>1412656.961285476</v>
+        <v>1733154.064525376</v>
       </c>
       <c r="AF9" t="n">
         <v>3.505612392758604e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.70601851851853</v>
       </c>
       <c r="AH9" t="n">
-        <v>1277834.963576887</v>
+        <v>1567744.273104081</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1393.484172205257</v>
+        <v>1688.460523225379</v>
       </c>
       <c r="AB2" t="n">
-        <v>1906.626520594139</v>
+        <v>2310.226177498034</v>
       </c>
       <c r="AC2" t="n">
-        <v>1724.660761435762</v>
+        <v>2089.741433540426</v>
       </c>
       <c r="AD2" t="n">
-        <v>1393484.172205257</v>
+        <v>1688460.523225379</v>
       </c>
       <c r="AE2" t="n">
-        <v>1906626.520594139</v>
+        <v>2310226.177498034</v>
       </c>
       <c r="AF2" t="n">
         <v>3.316271512327165e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.23148148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>1724660.761435762</v>
+        <v>2089741.433540426</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1027.967852532392</v>
+        <v>1265.859917036059</v>
       </c>
       <c r="AB3" t="n">
-        <v>1406.510966575779</v>
+        <v>1732.005384286877</v>
       </c>
       <c r="AC3" t="n">
-        <v>1272.275533976326</v>
+        <v>1566.705221295361</v>
       </c>
       <c r="AD3" t="n">
-        <v>1027967.852532393</v>
+        <v>1265859.917036059</v>
       </c>
       <c r="AE3" t="n">
-        <v>1406510.966575779</v>
+        <v>1732005.384286877</v>
       </c>
       <c r="AF3" t="n">
         <v>4.051494860883695e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.30555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1272275.533976326</v>
+        <v>1566705.221295361</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>914.7666561108573</v>
+        <v>1143.104813206537</v>
       </c>
       <c r="AB4" t="n">
-        <v>1251.624095547513</v>
+        <v>1564.046435654356</v>
       </c>
       <c r="AC4" t="n">
-        <v>1132.170848533909</v>
+        <v>1414.776038988463</v>
       </c>
       <c r="AD4" t="n">
-        <v>914766.6561108573</v>
+        <v>1143104.813206537</v>
       </c>
       <c r="AE4" t="n">
-        <v>1251624.095547513</v>
+        <v>1564046.435654356</v>
       </c>
       <c r="AF4" t="n">
         <v>4.303127640741775e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.42361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1132170.848533909</v>
+        <v>1414776.038988463</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>916.2474326874609</v>
+        <v>1144.58558978314</v>
       </c>
       <c r="AB5" t="n">
-        <v>1253.650159386874</v>
+        <v>1566.072499493717</v>
       </c>
       <c r="AC5" t="n">
-        <v>1134.00354768404</v>
+        <v>1416.608738138594</v>
       </c>
       <c r="AD5" t="n">
-        <v>916247.4326874609</v>
+        <v>1144585.58978314</v>
       </c>
       <c r="AE5" t="n">
-        <v>1253650.159386874</v>
+        <v>1566072.499493717</v>
       </c>
       <c r="AF5" t="n">
         <v>4.304508341865825e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.40046296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>1134003.54768404</v>
+        <v>1416608.738138594</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1105.125324499779</v>
+        <v>1368.317293403109</v>
       </c>
       <c r="AB2" t="n">
-        <v>1512.081223668981</v>
+        <v>1872.192086732707</v>
       </c>
       <c r="AC2" t="n">
-        <v>1367.770313901339</v>
+        <v>1693.512701613034</v>
       </c>
       <c r="AD2" t="n">
-        <v>1105125.324499779</v>
+        <v>1368317.293403109</v>
       </c>
       <c r="AE2" t="n">
-        <v>1512081.223668981</v>
+        <v>1872192.086732707</v>
       </c>
       <c r="AF2" t="n">
         <v>4.160767091145769e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.59490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>1367770.313901339</v>
+        <v>1693512.701613034</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>873.1095430483701</v>
+        <v>1098.630458669408</v>
       </c>
       <c r="AB3" t="n">
-        <v>1194.626995673294</v>
+        <v>1503.194661706611</v>
       </c>
       <c r="AC3" t="n">
-        <v>1080.613471875753</v>
+        <v>1359.73187294029</v>
       </c>
       <c r="AD3" t="n">
-        <v>873109.5430483702</v>
+        <v>1098630.458669408</v>
       </c>
       <c r="AE3" t="n">
-        <v>1194626.995673294</v>
+        <v>1503194.661706611</v>
       </c>
       <c r="AF3" t="n">
         <v>4.801307784735986e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.30324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1080613.471875753</v>
+        <v>1359731.87294029</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>875.9683911128934</v>
+        <v>1101.489306733932</v>
       </c>
       <c r="AB4" t="n">
-        <v>1198.53859771865</v>
+        <v>1507.106263751967</v>
       </c>
       <c r="AC4" t="n">
-        <v>1084.151756111869</v>
+        <v>1363.270157176404</v>
       </c>
       <c r="AD4" t="n">
-        <v>875968.3911128935</v>
+        <v>1101489.306733932</v>
       </c>
       <c r="AE4" t="n">
-        <v>1198538.59771865</v>
+        <v>1507106.263751967</v>
       </c>
       <c r="AF4" t="n">
         <v>4.804251446011677e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.2800925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>1084151.756111868</v>
+        <v>1363270.157176404</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>916.2697214954353</v>
+        <v>1167.428345515705</v>
       </c>
       <c r="AB2" t="n">
-        <v>1253.680655917258</v>
+        <v>1597.326965638271</v>
       </c>
       <c r="AC2" t="n">
-        <v>1134.031133668365</v>
+        <v>1444.880321900231</v>
       </c>
       <c r="AD2" t="n">
-        <v>916269.7214954353</v>
+        <v>1167428.345515705</v>
       </c>
       <c r="AE2" t="n">
-        <v>1253680.655917258</v>
+        <v>1597326.965638271</v>
       </c>
       <c r="AF2" t="n">
         <v>5.014104208516268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.86805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1134031.133668365</v>
+        <v>1444880.321900231</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>848.5334947865601</v>
+        <v>1081.047029582602</v>
       </c>
       <c r="AB3" t="n">
-        <v>1161.000962222757</v>
+        <v>1479.136238303898</v>
       </c>
       <c r="AC3" t="n">
-        <v>1050.196659863301</v>
+        <v>1337.969551700923</v>
       </c>
       <c r="AD3" t="n">
-        <v>848533.4947865602</v>
+        <v>1081047.029582602</v>
       </c>
       <c r="AE3" t="n">
-        <v>1161000.962222757</v>
+        <v>1479136.238303898</v>
       </c>
       <c r="AF3" t="n">
         <v>5.26512898516345e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.44907407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>1050196.659863301</v>
+        <v>1337969.551700923</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>832.7640185377062</v>
+        <v>1078.840850520323</v>
       </c>
       <c r="AB2" t="n">
-        <v>1139.424469118883</v>
+        <v>1476.117646781137</v>
       </c>
       <c r="AC2" t="n">
-        <v>1030.679396978462</v>
+        <v>1335.239050316474</v>
       </c>
       <c r="AD2" t="n">
-        <v>832764.0185377062</v>
+        <v>1078840.850520323</v>
       </c>
       <c r="AE2" t="n">
-        <v>1139424.469118883</v>
+        <v>1476117.646781137</v>
       </c>
       <c r="AF2" t="n">
         <v>6.311852888599187e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.44907407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>1030679.396978462</v>
+        <v>1335239.050316474</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1708.793961227447</v>
+        <v>2035.753107117566</v>
       </c>
       <c r="AB2" t="n">
-        <v>2338.047284420438</v>
+        <v>2785.407212246791</v>
       </c>
       <c r="AC2" t="n">
-        <v>2114.907333065325</v>
+        <v>2519.571857253532</v>
       </c>
       <c r="AD2" t="n">
-        <v>1708793.961227447</v>
+        <v>2035753.107117566</v>
       </c>
       <c r="AE2" t="n">
-        <v>2338047.284420438</v>
+        <v>2785407.212246791</v>
       </c>
       <c r="AF2" t="n">
         <v>2.73139168039551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>66.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2114907.333065324</v>
+        <v>2519571.857253531</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1190.841238716018</v>
+        <v>1450.524658068321</v>
       </c>
       <c r="AB3" t="n">
-        <v>1629.361519018889</v>
+        <v>1984.671829800617</v>
       </c>
       <c r="AC3" t="n">
-        <v>1473.85754246698</v>
+        <v>1795.257535868853</v>
       </c>
       <c r="AD3" t="n">
-        <v>1190841.238716018</v>
+        <v>1450524.658068321</v>
       </c>
       <c r="AE3" t="n">
-        <v>1629361.519018889</v>
+        <v>1984671.829800617</v>
       </c>
       <c r="AF3" t="n">
         <v>3.486309945096924e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.99074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1473857.54246698</v>
+        <v>1795257.535868853</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1042.959075801893</v>
+        <v>1283.401624769762</v>
       </c>
       <c r="AB4" t="n">
-        <v>1427.022619619204</v>
+        <v>1756.006722693656</v>
       </c>
       <c r="AC4" t="n">
-        <v>1290.829583641572</v>
+        <v>1588.415905650687</v>
       </c>
       <c r="AD4" t="n">
-        <v>1042959.075801893</v>
+        <v>1283401.624769762</v>
       </c>
       <c r="AE4" t="n">
-        <v>1427022.619619204</v>
+        <v>1756006.722693656</v>
       </c>
       <c r="AF4" t="n">
         <v>3.777096756453598e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.98611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1290829.583641572</v>
+        <v>1588415.905650687</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>969.5053426934074</v>
+        <v>1190.708032306699</v>
       </c>
       <c r="AB5" t="n">
-        <v>1326.519981430175</v>
+        <v>1629.179260133006</v>
       </c>
       <c r="AC5" t="n">
-        <v>1199.918776184966</v>
+        <v>1473.692678113364</v>
       </c>
       <c r="AD5" t="n">
-        <v>969505.3426934074</v>
+        <v>1190708.032306699</v>
       </c>
       <c r="AE5" t="n">
-        <v>1326519.981430175</v>
+        <v>1629179.260133006</v>
       </c>
       <c r="AF5" t="n">
         <v>3.925073889858045e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.18055555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>1199918.776184966</v>
+        <v>1473692.678113364</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>964.79497786375</v>
+        <v>1185.997667477041</v>
       </c>
       <c r="AB6" t="n">
-        <v>1320.075052463608</v>
+        <v>1622.734331166438</v>
       </c>
       <c r="AC6" t="n">
-        <v>1194.088942193453</v>
+        <v>1467.862844121851</v>
       </c>
       <c r="AD6" t="n">
-        <v>964794.97786375</v>
+        <v>1185997.667477041</v>
       </c>
       <c r="AE6" t="n">
-        <v>1320075.052463608</v>
+        <v>1622734.331166438</v>
       </c>
       <c r="AF6" t="n">
         <v>3.933686315611743e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.07638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1194088.942193453</v>
+        <v>1467862.844121851</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2213.955201884851</v>
+        <v>2593.603693972726</v>
       </c>
       <c r="AB2" t="n">
-        <v>3029.231180029132</v>
+        <v>3548.682995813186</v>
       </c>
       <c r="AC2" t="n">
-        <v>2740.125607759701</v>
+        <v>3210.001671300507</v>
       </c>
       <c r="AD2" t="n">
-        <v>2213955.201884851</v>
+        <v>2593603.693972726</v>
       </c>
       <c r="AE2" t="n">
-        <v>3029231.180029132</v>
+        <v>3548682.995813186</v>
       </c>
       <c r="AF2" t="n">
         <v>2.159336900104683e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>76</v>
+        <v>75.8449074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>2740125.607759701</v>
+        <v>3210001.671300507</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1421.602969928496</v>
+        <v>1703.888174086772</v>
       </c>
       <c r="AB3" t="n">
-        <v>1945.099900152879</v>
+        <v>2331.334970026513</v>
       </c>
       <c r="AC3" t="n">
-        <v>1759.462295647144</v>
+        <v>2108.835632536363</v>
       </c>
       <c r="AD3" t="n">
-        <v>1421602.969928496</v>
+        <v>1703888.174086772</v>
       </c>
       <c r="AE3" t="n">
-        <v>1945099.900152879</v>
+        <v>2331334.970026514</v>
       </c>
       <c r="AF3" t="n">
         <v>2.943920027755589e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1759462.295647144</v>
+        <v>2108835.632536363</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1232.608780758833</v>
+        <v>1485.71916395701</v>
       </c>
       <c r="AB4" t="n">
-        <v>1686.509712695775</v>
+        <v>2032.826505429539</v>
       </c>
       <c r="AC4" t="n">
-        <v>1525.551592747338</v>
+        <v>1838.816396841263</v>
       </c>
       <c r="AD4" t="n">
-        <v>1232608.780758833</v>
+        <v>1485719.16395701</v>
       </c>
       <c r="AE4" t="n">
-        <v>1686509.712695775</v>
+        <v>2032826.505429539</v>
       </c>
       <c r="AF4" t="n">
         <v>3.241622985479214e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.52083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1525551.592747338</v>
+        <v>1838816.396841263</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1140.70802677103</v>
+        <v>1374.312597994363</v>
       </c>
       <c r="AB5" t="n">
-        <v>1560.76704671454</v>
+        <v>1880.395126968633</v>
       </c>
       <c r="AC5" t="n">
-        <v>1411.809630326412</v>
+        <v>1700.932855201882</v>
       </c>
       <c r="AD5" t="n">
-        <v>1140708.02677103</v>
+        <v>1374312.597994363</v>
       </c>
       <c r="AE5" t="n">
-        <v>1560767.04671454</v>
+        <v>1880395.126968633</v>
       </c>
       <c r="AF5" t="n">
         <v>3.401369487033385e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>1411809.630326412</v>
+        <v>1700932.855201882</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1066.081690142894</v>
+        <v>1299.719415755151</v>
       </c>
       <c r="AB6" t="n">
-        <v>1458.660000658311</v>
+        <v>1778.333444209997</v>
       </c>
       <c r="AC6" t="n">
-        <v>1319.44753743765</v>
+        <v>1608.611796201259</v>
       </c>
       <c r="AD6" t="n">
-        <v>1066081.690142894</v>
+        <v>1299719.415755151</v>
       </c>
       <c r="AE6" t="n">
-        <v>1458660.00065831</v>
+        <v>1778333.444209997</v>
       </c>
       <c r="AF6" t="n">
         <v>3.51145166436655e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.64351851851851</v>
       </c>
       <c r="AH6" t="n">
-        <v>1319447.537437649</v>
+        <v>1608611.796201259</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1019.77634223542</v>
+        <v>1253.379902428897</v>
       </c>
       <c r="AB7" t="n">
-        <v>1395.302980803532</v>
+        <v>1714.929677721971</v>
       </c>
       <c r="AC7" t="n">
-        <v>1262.137222635675</v>
+        <v>1551.259196199105</v>
       </c>
       <c r="AD7" t="n">
-        <v>1019776.34223542</v>
+        <v>1253379.902428897</v>
       </c>
       <c r="AE7" t="n">
-        <v>1395302.980803532</v>
+        <v>1714929.677721971</v>
       </c>
       <c r="AF7" t="n">
         <v>3.568332172448726e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.8912037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1262137.222635675</v>
+        <v>1551259.196199105</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1014.950744775899</v>
+        <v>1248.554304969375</v>
       </c>
       <c r="AB8" t="n">
-        <v>1388.70038546908</v>
+        <v>1708.327082387519</v>
       </c>
       <c r="AC8" t="n">
-        <v>1256.164769733143</v>
+        <v>1545.286743296573</v>
       </c>
       <c r="AD8" t="n">
-        <v>1014950.744775899</v>
+        <v>1248554.304969375</v>
       </c>
       <c r="AE8" t="n">
-        <v>1388700.38546908</v>
+        <v>1708327.082387519</v>
       </c>
       <c r="AF8" t="n">
         <v>3.580783626954277e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.72916666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1256164.769733143</v>
+        <v>1545286.743296573</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>866.7950178804705</v>
+        <v>1137.5836133861</v>
       </c>
       <c r="AB2" t="n">
-        <v>1185.987183761385</v>
+        <v>1556.492086481889</v>
       </c>
       <c r="AC2" t="n">
-        <v>1072.798231486664</v>
+        <v>1407.942666298421</v>
       </c>
       <c r="AD2" t="n">
-        <v>866795.0178804705</v>
+        <v>1137583.6133861</v>
       </c>
       <c r="AE2" t="n">
-        <v>1185987.183761385</v>
+        <v>1556492.086481889</v>
       </c>
       <c r="AF2" t="n">
         <v>6.717300178728117e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.14351851851853</v>
       </c>
       <c r="AH2" t="n">
-        <v>1072798.231486664</v>
+        <v>1407942.666298421</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1198.79051160032</v>
+        <v>1472.504988909975</v>
       </c>
       <c r="AB2" t="n">
-        <v>1640.238064876359</v>
+        <v>2014.746288161927</v>
       </c>
       <c r="AC2" t="n">
-        <v>1483.696046053141</v>
+        <v>1822.461730133927</v>
       </c>
       <c r="AD2" t="n">
-        <v>1198790.51160032</v>
+        <v>1472504.988909975</v>
       </c>
       <c r="AE2" t="n">
-        <v>1640238.064876359</v>
+        <v>2014746.288161927</v>
       </c>
       <c r="AF2" t="n">
         <v>3.83877329090711e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.42361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1483696.046053141</v>
+        <v>1822461.730133927</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>910.2354808780348</v>
+        <v>1146.244846553336</v>
       </c>
       <c r="AB3" t="n">
-        <v>1245.424341692622</v>
+        <v>1568.342767807942</v>
       </c>
       <c r="AC3" t="n">
-        <v>1126.56279048552</v>
+        <v>1418.662335231251</v>
       </c>
       <c r="AD3" t="n">
-        <v>910235.4808780347</v>
+        <v>1146244.846553336</v>
       </c>
       <c r="AE3" t="n">
-        <v>1245424.341692622</v>
+        <v>1568342.767807941</v>
       </c>
       <c r="AF3" t="n">
         <v>4.550086959250987e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.60416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1126562.79048552</v>
+        <v>1418662.335231251</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>882.3364140562854</v>
+        <v>1118.311614312806</v>
       </c>
       <c r="AB4" t="n">
-        <v>1207.251607647144</v>
+        <v>1530.123287129215</v>
       </c>
       <c r="AC4" t="n">
-        <v>1092.033208601573</v>
+        <v>1384.090468147123</v>
       </c>
       <c r="AD4" t="n">
-        <v>882336.4140562854</v>
+        <v>1118311.614312806</v>
       </c>
       <c r="AE4" t="n">
-        <v>1207251.607647144</v>
+        <v>1530123.287129215</v>
       </c>
       <c r="AF4" t="n">
         <v>4.615585455415248e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.9212962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>1092033.208601573</v>
+        <v>1384090.468147123</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1494.595825282946</v>
+        <v>1800.21850900959</v>
       </c>
       <c r="AB2" t="n">
-        <v>2044.971945066345</v>
+        <v>2463.138384062354</v>
       </c>
       <c r="AC2" t="n">
-        <v>1849.802692765363</v>
+        <v>2228.059913723877</v>
       </c>
       <c r="AD2" t="n">
-        <v>1494595.825282946</v>
+        <v>1800218.50900959</v>
       </c>
       <c r="AE2" t="n">
-        <v>2044971.945066345</v>
+        <v>2463138.384062354</v>
       </c>
       <c r="AF2" t="n">
         <v>3.10041629968175e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.21064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>1849802.692765363</v>
+        <v>2228059.913723877</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1084.52216045814</v>
+        <v>1332.815156490051</v>
       </c>
       <c r="AB3" t="n">
-        <v>1483.891065679764</v>
+        <v>1823.616496764521</v>
       </c>
       <c r="AC3" t="n">
-        <v>1342.270585025478</v>
+        <v>1649.573097775143</v>
       </c>
       <c r="AD3" t="n">
-        <v>1084522.16045814</v>
+        <v>1332815.156490051</v>
       </c>
       <c r="AE3" t="n">
-        <v>1483891.065679764</v>
+        <v>1823616.496764521</v>
       </c>
       <c r="AF3" t="n">
         <v>3.845276068550793e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.16203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>1342270.585025478</v>
+        <v>1649573.097775143</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>951.336323738768</v>
+        <v>1180.62090909892</v>
       </c>
       <c r="AB4" t="n">
-        <v>1301.660328135893</v>
+        <v>1615.377613147655</v>
       </c>
       <c r="AC4" t="n">
-        <v>1177.431693310347</v>
+        <v>1461.208240945561</v>
       </c>
       <c r="AD4" t="n">
-        <v>951336.323738768</v>
+        <v>1180620.90909892</v>
       </c>
       <c r="AE4" t="n">
-        <v>1301660.328135893</v>
+        <v>1615377.613147655</v>
       </c>
       <c r="AF4" t="n">
         <v>4.119724399496501e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.81712962962964</v>
       </c>
       <c r="AH4" t="n">
-        <v>1177431.693310347</v>
+        <v>1461208.240945561</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>932.5365353178474</v>
+        <v>1161.719635451514</v>
       </c>
       <c r="AB5" t="n">
-        <v>1275.937628230259</v>
+        <v>1589.516056677932</v>
       </c>
       <c r="AC5" t="n">
-        <v>1154.163931781671</v>
+        <v>1437.814875128386</v>
       </c>
       <c r="AD5" t="n">
-        <v>932536.5353178474</v>
+        <v>1161719.635451514</v>
       </c>
       <c r="AE5" t="n">
-        <v>1275937.628230259</v>
+        <v>1589516.056677932</v>
       </c>
       <c r="AF5" t="n">
         <v>4.164882564454781e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.30787037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>1154163.931781671</v>
+        <v>1437814.875128386</v>
       </c>
     </row>
   </sheetData>
